--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/ERWINN MORALES.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/ERWINN MORALES.xlsx
@@ -1760,106 +1760,10 @@
     <x:t>Ultimo Acceso</x:t>
   </x:si>
   <x:si>
-    <x:t>CRISTOPHER EUGENIO JIMENEZ HERNANDES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X204295</x:t>
+    <x:t>COTJEM</x:t>
   </x:si>
   <x:si>
     <x:t>CONSULTA COTIZADOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KAREN LEONOR ABUNDES CEDILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X828003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F&amp;I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONICA ALEJANDRA LOPEZ LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X008406</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KARLA NOEMI CONTRERAS MARIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X743921</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">INES NAOMI MONCIVAIS </x:t>
-  </x:si>
-  <x:si>
-    <x:t>X728503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>x465637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDREA GONZALES PASILLAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OMAR ALEJANDRO MALDONADO CASTAÑON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARMEN GUADLUPE FLORES DE ANDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDBHM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDMCV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jorge Daniel Gonzalez Valdez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDJGV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDNAA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Daniel Cruz Navarro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDDCN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carolina Rodriguez Gomez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDCRG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrea Yanin Garcia Montes de Oca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDAGM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mayela Estepania Flores Hernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AIDMFH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COTJEM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOEMI EDITH GUTIERREZ GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COTNGG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIRIDIANA PRIETO CASTILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COTVPC</x:t>
   </x:si>
   <x:si>
     <x:t>PRODESK</x:t>
@@ -9326,14 +9230,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J32"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="40.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="32.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="21.567768" style="0" customWidth="1"/>
@@ -9401,22 +9305,22 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>577</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>578</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>579</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45308</x:v>
+        <x:v>45119</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45336</x:v>
+        <x:v>45338</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>19</x:v>
@@ -9429,728 +9333,28 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>580</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>581</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>582</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="F7" s="4">
-        <x:v>45205</x:v>
+        <x:v>44757</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45335</x:v>
+        <x:v>45330</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="I7" s="3"/>
       <x:c r="J7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>501</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>45201</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45306</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I8" s="3"/>
-      <x:c r="J8" s="3"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>583</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>584</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F9" s="4">
-        <x:v>45167</x:v>
-      </x:c>
-      <x:c r="G9" s="4">
-        <x:v>45331</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I9" s="3"/>
-      <x:c r="J9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>585</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>586</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F10" s="4">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c r="G10" s="4">
-        <x:v>45330</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I10" s="3"/>
-      <x:c r="J10" s="3"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>587</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>588</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F11" s="4">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c r="G11" s="4">
-        <x:v>45330</x:v>
-      </x:c>
-      <x:c r="H11" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I11" s="3"/>
-      <x:c r="J11" s="3"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>458</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F12" s="4">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c r="G12" s="4">
-        <x:v>45331</x:v>
-      </x:c>
-      <x:c r="H12" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I12" s="3"/>
-      <x:c r="J12" s="3"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>466</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>589</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F13" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G13" s="4">
-        <x:v>45346</x:v>
-      </x:c>
-      <x:c r="H13" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I13" s="3"/>
-      <x:c r="J13" s="3"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>590</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F14" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G14" s="4">
-        <x:v>45309</x:v>
-      </x:c>
-      <x:c r="H14" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I14" s="3"/>
-      <x:c r="J14" s="3"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>502</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F15" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G15" s="4">
-        <x:v>45318</x:v>
-      </x:c>
-      <x:c r="H15" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I15" s="3"/>
-      <x:c r="J15" s="3"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E16" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F16" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G16" s="4">
-        <x:v>45324</x:v>
-      </x:c>
-      <x:c r="H16" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I16" s="3"/>
-      <x:c r="J16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>591</x:v>
-      </x:c>
-      <x:c r="C17" s="3" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E17" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F17" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G17" s="4">
-        <x:v>45321</x:v>
-      </x:c>
-      <x:c r="H17" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I17" s="3"/>
-      <x:c r="J17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>386</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E18" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F18" s="4">
-        <x:v>45152</x:v>
-      </x:c>
-      <x:c r="G18" s="4">
-        <x:v>45320</x:v>
-      </x:c>
-      <x:c r="H18" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I18" s="3"/>
-      <x:c r="J18" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>338</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E19" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F19" s="4">
-        <x:v>45131</x:v>
-      </x:c>
-      <x:c r="G19" s="4">
-        <x:v>45329</x:v>
-      </x:c>
-      <x:c r="H19" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I19" s="3"/>
-      <x:c r="J19" s="3"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>592</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D20" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E20" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F20" s="4">
-        <x:v>45131</x:v>
-      </x:c>
-      <x:c r="G20" s="4">
-        <x:v>45352</x:v>
-      </x:c>
-      <x:c r="H20" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I20" s="3"/>
-      <x:c r="J20" s="3"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s">
-        <x:v>333</x:v>
-      </x:c>
-      <x:c r="C21" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D21" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E21" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F21" s="4">
-        <x:v>45119</x:v>
-      </x:c>
-      <x:c r="G21" s="4">
-        <x:v>45338</x:v>
-      </x:c>
-      <x:c r="H21" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I21" s="3"/>
-      <x:c r="J21" s="3"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B22" s="3" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="C22" s="3" t="s">
-        <x:v>593</x:v>
-      </x:c>
-      <x:c r="D22" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F22" s="4">
-        <x:v>45097</x:v>
-      </x:c>
-      <x:c r="G22" s="4">
-        <x:v>45329</x:v>
-      </x:c>
-      <x:c r="H22" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I22" s="3"/>
-      <x:c r="J22" s="3"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B23" s="3" t="s">
-        <x:v>456</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>594</x:v>
-      </x:c>
-      <x:c r="D23" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E23" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F23" s="4">
-        <x:v>45048</x:v>
-      </x:c>
-      <x:c r="G23" s="4">
-        <x:v>45342</x:v>
-      </x:c>
-      <x:c r="H23" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I23" s="3"/>
-      <x:c r="J23" s="3"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B24" s="3" t="s">
-        <x:v>595</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>596</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F24" s="4">
-        <x:v>44802</x:v>
-      </x:c>
-      <x:c r="G24" s="4">
-        <x:v>45307</x:v>
-      </x:c>
-      <x:c r="H24" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I24" s="3"/>
-      <x:c r="J24" s="3"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="C25" s="3" t="s">
-        <x:v>597</x:v>
-      </x:c>
-      <x:c r="D25" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E25" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F25" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G25" s="4">
-        <x:v>45355</x:v>
-      </x:c>
-      <x:c r="H25" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I25" s="3"/>
-      <x:c r="J25" s="3"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B26" s="3" t="s">
-        <x:v>598</x:v>
-      </x:c>
-      <x:c r="C26" s="3" t="s">
-        <x:v>599</x:v>
-      </x:c>
-      <x:c r="D26" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E26" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F26" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G26" s="4">
-        <x:v>45321</x:v>
-      </x:c>
-      <x:c r="H26" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I26" s="3"/>
-      <x:c r="J26" s="3"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B27" s="3" t="s">
-        <x:v>600</x:v>
-      </x:c>
-      <x:c r="C27" s="3" t="s">
-        <x:v>601</x:v>
-      </x:c>
-      <x:c r="D27" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E27" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F27" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G27" s="4">
-        <x:v>45355</x:v>
-      </x:c>
-      <x:c r="H27" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I27" s="3"/>
-      <x:c r="J27" s="3"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B28" s="3" t="s">
-        <x:v>602</x:v>
-      </x:c>
-      <x:c r="C28" s="3" t="s">
-        <x:v>603</x:v>
-      </x:c>
-      <x:c r="D28" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E28" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F28" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G28" s="4">
-        <x:v>45342</x:v>
-      </x:c>
-      <x:c r="H28" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I28" s="3"/>
-      <x:c r="J28" s="3"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B29" s="3" t="s">
-        <x:v>604</x:v>
-      </x:c>
-      <x:c r="C29" s="3" t="s">
-        <x:v>605</x:v>
-      </x:c>
-      <x:c r="D29" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E29" s="3" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F29" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G29" s="4">
-        <x:v>45352</x:v>
-      </x:c>
-      <x:c r="H29" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I29" s="3"/>
-      <x:c r="J29" s="3"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B30" s="3" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="C30" s="3" t="s">
-        <x:v>606</x:v>
-      </x:c>
-      <x:c r="D30" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E30" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F30" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G30" s="4">
-        <x:v>45330</x:v>
-      </x:c>
-      <x:c r="H30" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I30" s="3"/>
-      <x:c r="J30" s="3"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B31" s="3" t="s">
-        <x:v>607</x:v>
-      </x:c>
-      <x:c r="C31" s="3" t="s">
-        <x:v>608</x:v>
-      </x:c>
-      <x:c r="D31" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E31" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F31" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G31" s="4">
-        <x:v>45318</x:v>
-      </x:c>
-      <x:c r="H31" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I31" s="3"/>
-      <x:c r="J31" s="3"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="3" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="B32" s="3" t="s">
-        <x:v>609</x:v>
-      </x:c>
-      <x:c r="C32" s="3" t="s">
-        <x:v>610</x:v>
-      </x:c>
-      <x:c r="D32" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E32" s="3" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="F32" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G32" s="4">
-        <x:v>45321</x:v>
-      </x:c>
-      <x:c r="H32" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I32" s="3"/>
-      <x:c r="J32" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
@@ -10192,7 +9396,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -10239,19 +9443,19 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>612</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>613</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>614</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45183</x:v>
@@ -10267,19 +9471,19 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>615</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
         <x:v>335</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>613</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>616</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45106</x:v>
@@ -10295,19 +9499,19 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>617</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>618</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>613</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>616</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>45156</x:v>
@@ -10323,25 +9527,25 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
         <x:v>418</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>619</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>613</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>620</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>45351</x:v>
       </x:c>
       <x:c r="G9" s="3" t="s">
-        <x:v>621</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
         <x:v>19</x:v>
@@ -10351,25 +9555,25 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s">
-        <x:v>611</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>622</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>623</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>613</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>620</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="F10" s="4">
         <x:v>45351</x:v>
       </x:c>
       <x:c r="G10" s="3" t="s">
-        <x:v>621</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
         <x:v>19</x:v>
@@ -10417,7 +9621,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -10447,10 +9651,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>625</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>626</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -10464,7 +9668,7 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>507</x:v>
@@ -10476,10 +9680,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G6" s="5">
         <x:v>45355.6893533565</x:v>
@@ -10492,7 +9696,7 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
         <x:v>502</x:v>
@@ -10504,10 +9708,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G7" s="5">
         <x:v>45342.7907373495</x:v>
@@ -10520,7 +9724,7 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
         <x:v>403</x:v>
@@ -10532,10 +9736,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G8" s="5">
         <x:v>45355.6932889236</x:v>
@@ -10548,22 +9752,22 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
         <x:v>539</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>629</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G9" s="5">
         <x:v>45355.4791774653</x:v>
@@ -10576,10 +9780,10 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>630</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
         <x:v>42</x:v>
@@ -10588,10 +9792,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F10" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G10" s="5">
         <x:v>45355.5528423958</x:v>
@@ -10604,7 +9808,7 @@
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
         <x:v>479</x:v>
@@ -10616,10 +9820,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F11" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G11" s="5">
         <x:v>45355.6912068634</x:v>
@@ -10632,7 +9836,7 @@
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
         <x:v>549</x:v>
@@ -10644,10 +9848,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G12" s="5">
         <x:v>45355.688953044</x:v>
@@ -10660,10 +9864,10 @@
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>631</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
         <x:v>415</x:v>
@@ -10672,10 +9876,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G13" s="5">
         <x:v>45355.6683280093</x:v>
@@ -10688,7 +9892,7 @@
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
         <x:v>420</x:v>
@@ -10700,10 +9904,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G14" s="5">
         <x:v>45355.6985220255</x:v>
@@ -10716,22 +9920,22 @@
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>632</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>633</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F15" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G15" s="5">
         <x:v>45355.5976191782</x:v>
@@ -10744,7 +9948,7 @@
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
         <x:v>467</x:v>
@@ -10756,10 +9960,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E16" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G16" s="5">
         <x:v>45355.6953334144</x:v>
@@ -10772,10 +9976,10 @@
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>634</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
         <x:v>545</x:v>
@@ -10784,10 +9988,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E17" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G17" s="5">
         <x:v>45355.4747077894</x:v>
@@ -10800,10 +10004,10 @@
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>635</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
         <x:v>61</x:v>
@@ -10812,10 +10016,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F18" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G18" s="5">
         <x:v>45355.697844213</x:v>
@@ -10828,10 +10032,10 @@
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>636</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
         <x:v>370</x:v>
@@ -10840,10 +10044,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F19" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G19" s="5">
         <x:v>45355.691906713</x:v>
@@ -10856,7 +10060,7 @@
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
         <x:v>515</x:v>
@@ -10868,10 +10072,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G20" s="5">
         <x:v>45355.6092403588</x:v>
@@ -10884,7 +10088,7 @@
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
         <x:v>439</x:v>
@@ -10896,10 +10100,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E21" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G21" s="5">
         <x:v>45355.6760308681</x:v>
@@ -10912,22 +10116,22 @@
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>637</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>638</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E22" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F22" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G22" s="5">
         <x:v>45355.6981927083</x:v>
@@ -10940,7 +10144,7 @@
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
         <x:v>471</x:v>
@@ -10952,10 +10156,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E23" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F23" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G23" s="5">
         <x:v>45355.6321199074</x:v>
@@ -10968,10 +10172,10 @@
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>639</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
         <x:v>474</x:v>
@@ -10980,10 +10184,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E24" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F24" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G24" s="5">
         <x:v>45355.6542554745</x:v>
@@ -10996,7 +10200,7 @@
     </x:row>
     <x:row r="25" spans="1:10">
       <x:c r="A25" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
         <x:v>339</x:v>
@@ -11008,10 +10212,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E25" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F25" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G25" s="5">
         <x:v>45355.6920167477</x:v>
@@ -11024,22 +10228,22 @@
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>640</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>641</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E26" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F26" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G26" s="5">
         <x:v>45355.6573628819</x:v>
@@ -11052,22 +10256,22 @@
     </x:row>
     <x:row r="27" spans="1:10">
       <x:c r="A27" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>642</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>643</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E27" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F27" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G27" s="5">
         <x:v>45355.5842554051</x:v>
@@ -11080,22 +10284,22 @@
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>644</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>645</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E28" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F28" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G28" s="5">
         <x:v>45355.6576547106</x:v>
@@ -11108,10 +10312,10 @@
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>646</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
         <x:v>395</x:v>
@@ -11120,10 +10324,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E29" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G29" s="5">
         <x:v>45355.659609838</x:v>
@@ -11136,10 +10340,10 @@
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
-        <x:v>647</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
         <x:v>344</x:v>
@@ -11148,10 +10352,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E30" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F30" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G30" s="5">
         <x:v>45355.5519621528</x:v>
@@ -11164,7 +10368,7 @@
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
         <x:v>506</x:v>
@@ -11176,10 +10380,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E31" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F31" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G31" s="5">
         <x:v>45355.6712981134</x:v>
@@ -11192,10 +10396,10 @@
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>648</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
         <x:v>122</x:v>
@@ -11204,10 +10408,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E32" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F32" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G32" s="5">
         <x:v>45353.5345187153</x:v>
@@ -11220,10 +10424,10 @@
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>649</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
         <x:v>510</x:v>
@@ -11232,10 +10436,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E33" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F33" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G33" s="5">
         <x:v>45355.6886220255</x:v>
@@ -11248,10 +10452,10 @@
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>650</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
         <x:v>316</x:v>
@@ -11260,10 +10464,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E34" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F34" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G34" s="5">
         <x:v>45355.5596716782</x:v>
@@ -11276,7 +10480,7 @@
     </x:row>
     <x:row r="35" spans="1:10">
       <x:c r="A35" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
         <x:v>481</x:v>
@@ -11288,10 +10492,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E35" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F35" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G35" s="5">
         <x:v>45355.6930359606</x:v>
@@ -11304,7 +10508,7 @@
     </x:row>
     <x:row r="36" spans="1:10">
       <x:c r="A36" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
         <x:v>390</x:v>
@@ -11316,10 +10520,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E36" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F36" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G36" s="5">
         <x:v>45355.683740625</x:v>
@@ -11332,10 +10536,10 @@
     </x:row>
     <x:row r="37" spans="1:10">
       <x:c r="A37" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>651</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
         <x:v>533</x:v>
@@ -11344,10 +10548,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E37" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F37" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G37" s="5">
         <x:v>45355.5932459144</x:v>
@@ -11360,7 +10564,7 @@
     </x:row>
     <x:row r="38" spans="1:10">
       <x:c r="A38" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
         <x:v>134</x:v>
@@ -11372,10 +10576,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E38" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G38" s="5">
         <x:v>45355.6825103009</x:v>
@@ -11388,7 +10592,7 @@
     </x:row>
     <x:row r="39" spans="1:10">
       <x:c r="A39" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
         <x:v>524</x:v>
@@ -11400,10 +10604,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E39" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F39" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G39" s="5">
         <x:v>45355.5159165509</x:v>
@@ -11416,7 +10620,7 @@
     </x:row>
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
         <x:v>551</x:v>
@@ -11428,10 +10632,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E40" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F40" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G40" s="5">
         <x:v>45345.7207640857</x:v>
@@ -11444,7 +10648,7 @@
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
         <x:v>522</x:v>
@@ -11456,10 +10660,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E41" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F41" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G41" s="5">
         <x:v>45355.676755706</x:v>
@@ -11472,10 +10676,10 @@
     </x:row>
     <x:row r="42" spans="1:10">
       <x:c r="A42" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>652</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
         <x:v>149</x:v>
@@ -11484,10 +10688,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E42" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F42" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G42" s="5">
         <x:v>45341.4561226852</x:v>
@@ -11500,7 +10704,7 @@
     </x:row>
     <x:row r="43" spans="1:10">
       <x:c r="A43" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
         <x:v>511</x:v>
@@ -11512,10 +10716,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E43" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F43" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G43" s="5">
         <x:v>45351.6042393866</x:v>
@@ -11528,10 +10732,10 @@
     </x:row>
     <x:row r="44" spans="1:10">
       <x:c r="A44" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>653</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
         <x:v>497</x:v>
@@ -11540,10 +10744,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E44" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F44" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G44" s="5">
         <x:v>45355.7018079051</x:v>
@@ -11556,7 +10760,7 @@
     </x:row>
     <x:row r="45" spans="1:10">
       <x:c r="A45" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
         <x:v>324</x:v>
@@ -11568,10 +10772,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E45" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F45" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G45" s="5">
         <x:v>45355.5312009606</x:v>
@@ -11584,7 +10788,7 @@
     </x:row>
     <x:row r="46" spans="1:10">
       <x:c r="A46" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
         <x:v>367</x:v>
@@ -11596,10 +10800,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E46" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F46" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G46" s="5">
         <x:v>45353.5785287384</x:v>
@@ -11612,7 +10816,7 @@
     </x:row>
     <x:row r="47" spans="1:10">
       <x:c r="A47" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
         <x:v>180</x:v>
@@ -11624,10 +10828,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E47" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F47" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G47" s="5">
         <x:v>45355.596562963</x:v>
@@ -11640,7 +10844,7 @@
     </x:row>
     <x:row r="48" spans="1:10">
       <x:c r="A48" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
         <x:v>354</x:v>
@@ -11652,10 +10856,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E48" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F48" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G48" s="5">
         <x:v>45355.5324802431</x:v>
@@ -11668,10 +10872,10 @@
     </x:row>
     <x:row r="49" spans="1:10">
       <x:c r="A49" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>654</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
         <x:v>462</x:v>
@@ -11680,10 +10884,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E49" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F49" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G49" s="5">
         <x:v>45355.5872579051</x:v>
@@ -11696,10 +10900,10 @@
     </x:row>
     <x:row r="50" spans="1:10">
       <x:c r="A50" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>655</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
         <x:v>199</x:v>
@@ -11708,10 +10912,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E50" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F50" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G50" s="5">
         <x:v>45353.6022362268</x:v>
@@ -11724,7 +10928,7 @@
     </x:row>
     <x:row r="51" spans="1:10">
       <x:c r="A51" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
         <x:v>526</x:v>
@@ -11736,10 +10940,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E51" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F51" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G51" s="5">
         <x:v>45355.6576186343</x:v>
@@ -11752,7 +10956,7 @@
     </x:row>
     <x:row r="52" spans="1:10">
       <x:c r="A52" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B52" s="3" t="s">
         <x:v>318</x:v>
@@ -11764,10 +10968,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E52" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F52" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G52" s="5">
         <x:v>45352.7292844907</x:v>
@@ -11780,10 +10984,10 @@
     </x:row>
     <x:row r="53" spans="1:10">
       <x:c r="A53" s="3" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B53" s="3" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B53" s="3" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C53" s="3" t="s">
         <x:v>208</x:v>
@@ -11792,10 +10996,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E53" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F53" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G53" s="5">
         <x:v>45355.571447419</x:v>
@@ -11808,7 +11012,7 @@
     </x:row>
     <x:row r="54" spans="1:10">
       <x:c r="A54" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B54" s="3" t="s">
         <x:v>441</x:v>
@@ -11820,10 +11024,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E54" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F54" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G54" s="5">
         <x:v>45355.4714658218</x:v>
@@ -11836,7 +11040,7 @@
     </x:row>
     <x:row r="55" spans="1:10">
       <x:c r="A55" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B55" s="3" t="s">
         <x:v>326</x:v>
@@ -11848,10 +11052,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E55" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F55" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G55" s="5">
         <x:v>45355.6917760764</x:v>
@@ -11864,7 +11068,7 @@
     </x:row>
     <x:row r="56" spans="1:10">
       <x:c r="A56" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B56" s="3" t="s">
         <x:v>381</x:v>
@@ -11876,10 +11080,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E56" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F56" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G56" s="5">
         <x:v>45355.6402501505</x:v>
@@ -11892,10 +11096,10 @@
     </x:row>
     <x:row r="57" spans="1:10">
       <x:c r="A57" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B57" s="3" t="s">
-        <x:v>657</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
         <x:v>393</x:v>
@@ -11904,10 +11108,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E57" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F57" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G57" s="5">
         <x:v>45355.6248895833</x:v>
@@ -11920,10 +11124,10 @@
     </x:row>
     <x:row r="58" spans="1:10">
       <x:c r="A58" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B58" s="3" t="s">
-        <x:v>658</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
         <x:v>413</x:v>
@@ -11932,10 +11136,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E58" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F58" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G58" s="5">
         <x:v>45329.4986998032</x:v>
@@ -11948,10 +11152,10 @@
     </x:row>
     <x:row r="59" spans="1:10">
       <x:c r="A59" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B59" s="3" t="s">
-        <x:v>659</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
         <x:v>417</x:v>
@@ -11960,10 +11164,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E59" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G59" s="5">
         <x:v>45355.7034560185</x:v>
@@ -11976,7 +11180,7 @@
     </x:row>
     <x:row r="60" spans="1:10">
       <x:c r="A60" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B60" s="3" t="s">
         <x:v>233</x:v>
@@ -11988,10 +11192,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E60" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F60" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G60" s="5">
         <x:v>45355.4524361111</x:v>
@@ -12004,10 +11208,10 @@
     </x:row>
     <x:row r="61" spans="1:10">
       <x:c r="A61" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B61" s="3" t="s">
-        <x:v>660</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="C61" s="3" t="s">
         <x:v>352</x:v>
@@ -12016,10 +11220,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E61" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F61" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G61" s="5">
         <x:v>45355.5959986458</x:v>
@@ -12032,10 +11236,10 @@
     </x:row>
     <x:row r="62" spans="1:10">
       <x:c r="A62" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B62" s="3" t="s">
-        <x:v>661</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
         <x:v>529</x:v>
@@ -12044,10 +11248,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E62" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F62" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G62" s="5">
         <x:v>45355.6984278588</x:v>
@@ -12060,7 +11264,7 @@
     </x:row>
     <x:row r="63" spans="1:10">
       <x:c r="A63" s="3" t="s">
-        <x:v>624</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B63" s="3" t="s">
         <x:v>501</x:v>
@@ -12072,10 +11276,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E63" s="3" t="s">
-        <x:v>627</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="F63" s="3" t="s">
-        <x:v>628</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="G63" s="5">
         <x:v>45355.6844601042</x:v>
